--- a/普通に制作した場合のやつ/音響リスト（流山）.xlsx
+++ b/普通に制作した場合のやつ/音響リスト（流山）.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Desktop\音響関係ソフト\音響用効果音\新・桃太郎の効果音\普通に制作した場合のやつ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Desktop\-\普通に制作した場合のやつ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF8AB9C5-762D-4A12-BA0F-58E99994C25D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6BED877-4F17-4E2E-BDB4-F5252EFCEA4C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{02A3478B-33EC-4707-8E68-BCC74393E7B3}"/>
   </bookViews>
@@ -90,16 +90,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>２幕の最後</t>
-    <rPh sb="1" eb="2">
-      <t>マク</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>サイゴ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>C/C</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -244,6 +234,16 @@
     </rPh>
     <rPh sb="9" eb="11">
       <t>ドウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>２幕の最後(おじさん)</t>
+    <rPh sb="1" eb="2">
+      <t>マク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>サイゴ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -612,7 +612,7 @@
   <dimension ref="A2:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:A11"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -624,7 +624,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="F3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -658,103 +658,103 @@
         <v>8</v>
       </c>
       <c r="F5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" t="s">
         <v>10</v>
       </c>
-      <c r="E6" t="s">
-        <v>11</v>
-      </c>
       <c r="F6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="E7" t="s">
         <v>8</v>
       </c>
       <c r="F7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
         <v>14</v>
       </c>
-      <c r="B8" t="s">
+      <c r="E8" t="s">
         <v>15</v>
       </c>
-      <c r="E8" t="s">
-        <v>16</v>
-      </c>
       <c r="F8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
         <v>17</v>
       </c>
-      <c r="B9" t="s">
-        <v>18</v>
-      </c>
       <c r="E9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" t="s">
         <v>19</v>
-      </c>
-      <c r="B10" t="s">
-        <v>20</v>
       </c>
       <c r="E10" t="s">
         <v>8</v>
       </c>
       <c r="F10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" t="s">
         <v>21</v>
-      </c>
-      <c r="B11" t="s">
-        <v>22</v>
       </c>
       <c r="E11" t="s">
         <v>8</v>
       </c>
       <c r="F11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/普通に制作した場合のやつ/音響リスト（流山）.xlsx
+++ b/普通に制作した場合のやつ/音響リスト（流山）.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Desktop\-\普通に制作した場合のやつ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6BED877-4F17-4E2E-BDB4-F5252EFCEA4C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50DBE307-35F3-4B01-952D-0E95B943A2C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{02A3478B-33EC-4707-8E68-BCC74393E7B3}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
   <si>
     <t>音響リスト（流山）</t>
     <rPh sb="0" eb="2">
@@ -65,19 +65,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>１幕から２幕最初まで</t>
-    <rPh sb="1" eb="2">
-      <t>マク</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>マク</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>サイショ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>S/C</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -87,30 +74,6 @@
   </si>
   <si>
     <t>Fl dan 2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>C/C</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>障子閉</t>
-    <rPh sb="0" eb="2">
-      <t>ショウジ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ヘイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>障子開</t>
-    <rPh sb="0" eb="2">
-      <t>ショウジ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ア</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -158,26 +121,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>叩く音</t>
-    <rPh sb="0" eb="1">
-      <t>タタ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>オト</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>５幕の最初</t>
-    <rPh sb="1" eb="2">
-      <t>マク</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>サイショ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>per blue</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -201,24 +144,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ダンスしているよ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>おばさんがいるときだけ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>桃太郎が起きる前まで</t>
-    <rPh sb="0" eb="3">
-      <t>モモタロウ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>オ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>マエ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -238,12 +164,26 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>２幕の最後(おじさん)</t>
-    <rPh sb="1" eb="2">
+    <t>最初から２幕最初まで</t>
+    <rPh sb="0" eb="2">
+      <t>サイショ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
       <t>マク</t>
     </rPh>
-    <rPh sb="3" eb="5">
-      <t>サイゴ</t>
+    <rPh sb="6" eb="8">
+      <t>サイショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シュルエットダンスしてるよ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リハーサルで確認するよ</t>
+    <rPh sb="6" eb="8">
+      <t>カクニン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -609,10 +549,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C00FDD89-2371-412A-AC86-F65BDA8759D3}">
-  <dimension ref="A2:J11"/>
+  <dimension ref="A2:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -624,7 +564,10 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="F3" t="s">
-        <v>22</v>
+        <v>16</v>
+      </c>
+      <c r="J3" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -638,7 +581,7 @@
         <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G4" t="s">
         <v>3</v>
@@ -649,112 +592,67 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="E5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F5" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="G5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" t="s">
         <v>11</v>
       </c>
-      <c r="B7" t="s">
-        <v>29</v>
-      </c>
-      <c r="E7" t="s">
-        <v>8</v>
-      </c>
       <c r="F7" t="s">
-        <v>24</v>
+        <v>18</v>
+      </c>
+      <c r="G7" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E8" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="F8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" t="s">
         <v>17</v>
       </c>
-      <c r="E9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F9" t="s">
-        <v>24</v>
-      </c>
-      <c r="G9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10" t="s">
-        <v>8</v>
-      </c>
-      <c r="F10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G10" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" t="s">
+      <c r="G8" t="s">
         <v>20</v>
-      </c>
-      <c r="B11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11" t="s">
-        <v>8</v>
-      </c>
-      <c r="F11" t="s">
-        <v>23</v>
-      </c>
-      <c r="G11" t="s">
-        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/普通に制作した場合のやつ/音響リスト（流山）.xlsx
+++ b/普通に制作した場合のやつ/音響リスト（流山）.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Desktop\-\普通に制作した場合のやつ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50DBE307-35F3-4B01-952D-0E95B943A2C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C008DD5-A06C-4724-BC1B-FBCA1771A056}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{02A3478B-33EC-4707-8E68-BCC74393E7B3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11040" xr2:uid="{02A3478B-33EC-4707-8E68-BCC74393E7B3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -552,17 +552,17 @@
   <dimension ref="A2:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
       <c r="F3" t="s">
         <v>16</v>
       </c>
@@ -570,7 +570,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -590,7 +590,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -607,7 +607,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -621,7 +621,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -638,7 +638,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>14</v>
       </c>
